--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col11a1-Ddr1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col11a1-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,10 +91,10 @@
     <t>Ddr1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>9.250077067121291</v>
+        <v>0.2471093333333333</v>
       </c>
       <c r="H2">
-        <v>9.250077067121291</v>
+        <v>0.741328</v>
       </c>
       <c r="I2">
-        <v>0.9900350596294349</v>
+        <v>0.02262716594355869</v>
       </c>
       <c r="J2">
-        <v>0.9900350596294349</v>
+        <v>0.02262716594355869</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.839493359722986</v>
+        <v>0.9840236666666667</v>
       </c>
       <c r="N2">
-        <v>0.839493359722986</v>
+        <v>2.952071</v>
       </c>
       <c r="O2">
-        <v>0.0818099111979609</v>
+        <v>0.08200347561927523</v>
       </c>
       <c r="P2">
-        <v>0.0818099111979609</v>
+        <v>0.08200347561927523</v>
       </c>
       <c r="Q2">
-        <v>7.765378274774197</v>
+        <v>0.2431614322542222</v>
       </c>
       <c r="R2">
-        <v>7.765378274774197</v>
+        <v>2.188452890288</v>
       </c>
       <c r="S2">
-        <v>0.08099468031115199</v>
+        <v>0.00185550625078591</v>
       </c>
       <c r="T2">
-        <v>0.08099468031115199</v>
+        <v>0.00185550625078591</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>9.250077067121291</v>
+        <v>0.2471093333333333</v>
       </c>
       <c r="H3">
-        <v>9.250077067121291</v>
+        <v>0.741328</v>
       </c>
       <c r="I3">
-        <v>0.9900350596294349</v>
+        <v>0.02262716594355869</v>
       </c>
       <c r="J3">
-        <v>0.9900350596294349</v>
+        <v>0.02262716594355869</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.45263670601819</v>
+        <v>2.460537333333333</v>
       </c>
       <c r="N3">
-        <v>2.45263670601819</v>
+        <v>7.381612000000001</v>
       </c>
       <c r="O3">
-        <v>0.2390131962287557</v>
+        <v>0.2050485370009561</v>
       </c>
       <c r="P3">
-        <v>0.2390131962287557</v>
+        <v>0.2050485370009561</v>
       </c>
       <c r="Q3">
-        <v>22.68707854831876</v>
+        <v>0.6080217400817778</v>
       </c>
       <c r="R3">
-        <v>22.68707854831876</v>
+        <v>5.472195660736</v>
       </c>
       <c r="S3">
-        <v>0.236631443980558</v>
+        <v>0.004639667273204568</v>
       </c>
       <c r="T3">
-        <v>0.236631443980558</v>
+        <v>0.004639667273204569</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>9.250077067121291</v>
+        <v>0.2471093333333333</v>
       </c>
       <c r="H4">
-        <v>9.250077067121291</v>
+        <v>0.741328</v>
       </c>
       <c r="I4">
-        <v>0.9900350596294349</v>
+        <v>0.02262716594355869</v>
       </c>
       <c r="J4">
-        <v>0.9900350596294349</v>
+        <v>0.02262716594355869</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.29428765945227</v>
+        <v>0.36615</v>
       </c>
       <c r="N4">
-        <v>0.29428765945227</v>
+        <v>1.09845</v>
       </c>
       <c r="O4">
-        <v>0.02867878227695617</v>
+        <v>0.03051305940608911</v>
       </c>
       <c r="P4">
-        <v>0.02867878227695617</v>
+        <v>0.03051305940608911</v>
       </c>
       <c r="Q4">
-        <v>2.722183529836243</v>
+        <v>0.09047908240000001</v>
       </c>
       <c r="R4">
-        <v>2.722183529836243</v>
+        <v>0.8143117416000001</v>
       </c>
       <c r="S4">
-        <v>0.02839299992166589</v>
+        <v>0.0006904240586272428</v>
       </c>
       <c r="T4">
-        <v>0.02839299992166589</v>
+        <v>0.0006904240586272428</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>9.250077067121291</v>
+        <v>0.2471093333333333</v>
       </c>
       <c r="H5">
-        <v>9.250077067121291</v>
+        <v>0.741328</v>
       </c>
       <c r="I5">
-        <v>0.9900350596294349</v>
+        <v>0.02262716594355869</v>
       </c>
       <c r="J5">
-        <v>0.9900350596294349</v>
+        <v>0.02262716594355869</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>6.67509396000577</v>
+        <v>0.1263393333333333</v>
       </c>
       <c r="N5">
-        <v>6.67509396000577</v>
+        <v>0.379018</v>
       </c>
       <c r="O5">
-        <v>0.6504981102963272</v>
+        <v>0.01052847079974244</v>
       </c>
       <c r="P5">
-        <v>0.6504981102963272</v>
+        <v>0.01052847079974244</v>
       </c>
       <c r="Q5">
-        <v>61.74513356032922</v>
+        <v>0.03121962843377778</v>
       </c>
       <c r="R5">
-        <v>61.74513356032922</v>
+        <v>0.280976655904</v>
       </c>
       <c r="S5">
-        <v>0.6440159354160591</v>
+        <v>0.0002382294559176843</v>
       </c>
       <c r="T5">
-        <v>0.6440159354160591</v>
+        <v>0.0002382294559176843</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.0931042446431101</v>
+        <v>0.2471093333333333</v>
       </c>
       <c r="H6">
-        <v>0.0931042446431101</v>
+        <v>0.741328</v>
       </c>
       <c r="I6">
-        <v>0.009964940370565062</v>
+        <v>0.02262716594355869</v>
       </c>
       <c r="J6">
-        <v>0.009964940370565062</v>
+        <v>0.02262716594355869</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.839493359722986</v>
+        <v>8.062729666666668</v>
       </c>
       <c r="N6">
-        <v>0.839493359722986</v>
+        <v>24.188189</v>
       </c>
       <c r="O6">
-        <v>0.0818099111979609</v>
+        <v>0.671906457173937</v>
       </c>
       <c r="P6">
-        <v>0.0818099111979609</v>
+        <v>0.671906457173937</v>
       </c>
       <c r="Q6">
-        <v>0.07816039513991531</v>
+        <v>1.992375752776889</v>
       </c>
       <c r="R6">
-        <v>0.07816039513991531</v>
+        <v>17.931381774992</v>
       </c>
       <c r="S6">
-        <v>0.0008152308868089032</v>
+        <v>0.01520333890502329</v>
       </c>
       <c r="T6">
-        <v>0.0008152308868089032</v>
+        <v>0.01520333890502329</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0931042446431101</v>
+        <v>10.459181</v>
       </c>
       <c r="H7">
-        <v>0.0931042446431101</v>
+        <v>31.377543</v>
       </c>
       <c r="I7">
-        <v>0.009964940370565062</v>
+        <v>0.9577202970374092</v>
       </c>
       <c r="J7">
-        <v>0.009964940370565062</v>
+        <v>0.9577202970374092</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.45263670601819</v>
+        <v>0.9840236666666667</v>
       </c>
       <c r="N7">
-        <v>2.45263670601819</v>
+        <v>2.952071</v>
       </c>
       <c r="O7">
-        <v>0.2390131962287557</v>
+        <v>0.08200347561927523</v>
       </c>
       <c r="P7">
-        <v>0.2390131962287557</v>
+        <v>0.08200347561927523</v>
       </c>
       <c r="Q7">
-        <v>0.2283508878977893</v>
+        <v>10.29208163795033</v>
       </c>
       <c r="R7">
-        <v>0.2283508878977893</v>
+        <v>92.628734741553</v>
       </c>
       <c r="S7">
-        <v>0.002381752248197717</v>
+        <v>0.07853639302819222</v>
       </c>
       <c r="T7">
-        <v>0.002381752248197717</v>
+        <v>0.07853639302819222</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.0931042446431101</v>
+        <v>10.459181</v>
       </c>
       <c r="H8">
-        <v>0.0931042446431101</v>
+        <v>31.377543</v>
       </c>
       <c r="I8">
-        <v>0.009964940370565062</v>
+        <v>0.9577202970374092</v>
       </c>
       <c r="J8">
-        <v>0.009964940370565062</v>
+        <v>0.9577202970374092</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.29428765945227</v>
+        <v>2.460537333333333</v>
       </c>
       <c r="N8">
-        <v>0.29428765945227</v>
+        <v>7.381612000000001</v>
       </c>
       <c r="O8">
-        <v>0.02867878227695617</v>
+        <v>0.2050485370009561</v>
       </c>
       <c r="P8">
-        <v>0.02867878227695617</v>
+        <v>0.2050485370009561</v>
       </c>
       <c r="Q8">
-        <v>0.02739943024109242</v>
+        <v>25.73520532659067</v>
       </c>
       <c r="R8">
-        <v>0.02739943024109242</v>
+        <v>231.616847939316</v>
       </c>
       <c r="S8">
-        <v>0.0002857823552902864</v>
+        <v>0.1963791457636419</v>
       </c>
       <c r="T8">
-        <v>0.0002857823552902864</v>
+        <v>0.1963791457636419</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,495 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10.459181</v>
+      </c>
+      <c r="H9">
+        <v>31.377543</v>
+      </c>
+      <c r="I9">
+        <v>0.9577202970374092</v>
+      </c>
+      <c r="J9">
+        <v>0.9577202970374092</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.36615</v>
+      </c>
+      <c r="N9">
+        <v>1.09845</v>
+      </c>
+      <c r="O9">
+        <v>0.03051305940608911</v>
+      </c>
+      <c r="P9">
+        <v>0.03051305940608911</v>
+      </c>
+      <c r="Q9">
+        <v>3.82962912315</v>
+      </c>
+      <c r="R9">
+        <v>34.46666210835</v>
+      </c>
+      <c r="S9">
+        <v>0.02922297631791978</v>
+      </c>
+      <c r="T9">
+        <v>0.02922297631791978</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>10.459181</v>
+      </c>
+      <c r="H10">
+        <v>31.377543</v>
+      </c>
+      <c r="I10">
+        <v>0.9577202970374092</v>
+      </c>
+      <c r="J10">
+        <v>0.9577202970374092</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1263393333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.379018</v>
+      </c>
+      <c r="O10">
+        <v>0.01052847079974244</v>
+      </c>
+      <c r="P10">
+        <v>0.01052847079974244</v>
+      </c>
+      <c r="Q10">
+        <v>1.321405954752667</v>
+      </c>
+      <c r="R10">
+        <v>11.892653592774</v>
+      </c>
+      <c r="S10">
+        <v>0.01008333018167902</v>
+      </c>
+      <c r="T10">
+        <v>0.01008333018167902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>10.459181</v>
+      </c>
+      <c r="H11">
+        <v>31.377543</v>
+      </c>
+      <c r="I11">
+        <v>0.9577202970374092</v>
+      </c>
+      <c r="J11">
+        <v>0.9577202970374092</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>8.062729666666668</v>
+      </c>
+      <c r="N11">
+        <v>24.188189</v>
+      </c>
+      <c r="O11">
+        <v>0.671906457173937</v>
+      </c>
+      <c r="P11">
+        <v>0.671906457173937</v>
+      </c>
+      <c r="Q11">
+        <v>84.32954893773633</v>
+      </c>
+      <c r="R11">
+        <v>758.965940439627</v>
+      </c>
+      <c r="S11">
+        <v>0.6434984517459763</v>
+      </c>
+      <c r="T11">
+        <v>0.6434984517459763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.2146236666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.643871</v>
+      </c>
+      <c r="I12">
+        <v>0.01965253701903217</v>
+      </c>
+      <c r="J12">
+        <v>0.01965253701903217</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.9840236666666667</v>
+      </c>
+      <c r="N12">
+        <v>2.952071</v>
+      </c>
+      <c r="O12">
+        <v>0.08200347561927523</v>
+      </c>
+      <c r="P12">
+        <v>0.08200347561927523</v>
+      </c>
+      <c r="Q12">
+        <v>0.2111947674267778</v>
+      </c>
+      <c r="R12">
+        <v>1.900752906841</v>
+      </c>
+      <c r="S12">
+        <v>0.001611576340297108</v>
+      </c>
+      <c r="T12">
+        <v>0.001611576340297108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.0931042446431101</v>
-      </c>
-      <c r="H9">
-        <v>0.0931042446431101</v>
-      </c>
-      <c r="I9">
-        <v>0.009964940370565062</v>
-      </c>
-      <c r="J9">
-        <v>0.009964940370565062</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>6.67509396000577</v>
-      </c>
-      <c r="N9">
-        <v>6.67509396000577</v>
-      </c>
-      <c r="O9">
-        <v>0.6504981102963272</v>
-      </c>
-      <c r="P9">
-        <v>0.6504981102963272</v>
-      </c>
-      <c r="Q9">
-        <v>0.6214795810681238</v>
-      </c>
-      <c r="R9">
-        <v>0.6214795810681238</v>
-      </c>
-      <c r="S9">
-        <v>0.006482174880268155</v>
-      </c>
-      <c r="T9">
-        <v>0.006482174880268155</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2146236666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.643871</v>
+      </c>
+      <c r="I13">
+        <v>0.01965253701903217</v>
+      </c>
+      <c r="J13">
+        <v>0.01965253701903217</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.460537333333333</v>
+      </c>
+      <c r="N13">
+        <v>7.381612000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.2050485370009561</v>
+      </c>
+      <c r="P13">
+        <v>0.2050485370009561</v>
+      </c>
+      <c r="Q13">
+        <v>0.5280895444502222</v>
+      </c>
+      <c r="R13">
+        <v>4.752805900052</v>
+      </c>
+      <c r="S13">
+        <v>0.004029723964109677</v>
+      </c>
+      <c r="T13">
+        <v>0.004029723964109678</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2146236666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.643871</v>
+      </c>
+      <c r="I14">
+        <v>0.01965253701903217</v>
+      </c>
+      <c r="J14">
+        <v>0.01965253701903217</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.36615</v>
+      </c>
+      <c r="N14">
+        <v>1.09845</v>
+      </c>
+      <c r="O14">
+        <v>0.03051305940608911</v>
+      </c>
+      <c r="P14">
+        <v>0.03051305940608911</v>
+      </c>
+      <c r="Q14">
+        <v>0.07858445555</v>
+      </c>
+      <c r="R14">
+        <v>0.7072600999500001</v>
+      </c>
+      <c r="S14">
+        <v>0.000599659029542094</v>
+      </c>
+      <c r="T14">
+        <v>0.000599659029542094</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.2146236666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.643871</v>
+      </c>
+      <c r="I15">
+        <v>0.01965253701903217</v>
+      </c>
+      <c r="J15">
+        <v>0.01965253701903217</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.1263393333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.379018</v>
+      </c>
+      <c r="O15">
+        <v>0.01052847079974244</v>
+      </c>
+      <c r="P15">
+        <v>0.01052847079974244</v>
+      </c>
+      <c r="Q15">
+        <v>0.02711541096422222</v>
+      </c>
+      <c r="R15">
+        <v>0.244038698678</v>
+      </c>
+      <c r="S15">
+        <v>0.0002069111621457375</v>
+      </c>
+      <c r="T15">
+        <v>0.0002069111621457375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2146236666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.643871</v>
+      </c>
+      <c r="I16">
+        <v>0.01965253701903217</v>
+      </c>
+      <c r="J16">
+        <v>0.01965253701903217</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.062729666666668</v>
+      </c>
+      <c r="N16">
+        <v>24.188189</v>
+      </c>
+      <c r="O16">
+        <v>0.671906457173937</v>
+      </c>
+      <c r="P16">
+        <v>0.671906457173937</v>
+      </c>
+      <c r="Q16">
+        <v>1.730452604402111</v>
+      </c>
+      <c r="R16">
+        <v>15.574073439619</v>
+      </c>
+      <c r="S16">
+        <v>0.01320466652293755</v>
+      </c>
+      <c r="T16">
+        <v>0.01320466652293755</v>
       </c>
     </row>
   </sheetData>
